--- a/docs/development plan.xlsx
+++ b/docs/development plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Search</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Bookkeeping</t>
+  </si>
+  <si>
+    <t>Expectations:</t>
+  </si>
+  <si>
+    <t>Reality:</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -439,19 +451,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -470,32 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -797,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:M22"/>
+  <dimension ref="C4:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,74 +821,79 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="5" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="18">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="18">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="18">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="18">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="18">
         <v>9</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="18">
         <v>10</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="18">
         <v>11</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="18">
         <v>12</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="18">
         <v>13</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="20">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
@@ -883,35 +901,35 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -919,29 +937,29 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -949,16 +967,16 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1"/>
@@ -966,29 +984,29 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -996,61 +1014,61 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1058,45 +1076,339 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6</v>
+      </c>
+      <c r="F27" s="18">
+        <v>7</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9</v>
+      </c>
+      <c r="I27" s="18">
+        <v>10</v>
+      </c>
+      <c r="J27" s="18">
+        <v>11</v>
+      </c>
+      <c r="K27" s="18">
+        <v>12</v>
+      </c>
+      <c r="L27" s="18">
+        <v>13</v>
+      </c>
+      <c r="M27" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C21:M21"/>
+  <mergeCells count="24">
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="C22:M22"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -1104,6 +1416,11 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/development plan.xlsx
+++ b/docs/development plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Search</t>
   </si>
@@ -105,6 +110,18 @@
   </si>
   <si>
     <t>Reality:</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>David Löffler</t>
+  </si>
+  <si>
+    <t>Jan Kohout</t>
+  </si>
+  <si>
+    <t>Miroslav Rudišin</t>
   </si>
 </sst>
 </file>
@@ -451,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,18 +495,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,10 +514,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,14 +539,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -564,9 +587,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,7 +659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,74 +833,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M43"/>
+  <dimension ref="C4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="25">
         <v>5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="25">
         <v>6</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="25">
         <v>7</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="25">
         <v>8</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="25">
         <v>9</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="25">
         <v>10</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="25">
         <v>11</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="25">
         <v>12</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="25">
         <v>13</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
@@ -891,8 +919,11 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
@@ -908,8 +939,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -923,8 +955,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,8 +971,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,8 +989,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
@@ -968,8 +1005,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -985,8 +1023,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1000,8 +1039,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +1055,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1071,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1047,8 +1089,9 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1062,8 +1105,9 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1077,94 +1121,101 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
+      <c r="N20" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="25">
         <v>5</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="25">
         <v>6</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="25">
         <v>7</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="25">
         <v>8</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="25">
         <v>9</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="25">
         <v>10</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="25">
         <v>11</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="25">
         <v>12</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="25">
         <v>13</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1229,11 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
@@ -1195,8 +1249,9 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1210,8 +1265,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1281,11 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1240,13 +1299,14 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="28"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1255,8 +1315,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
@@ -1272,8 +1333,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1287,8 +1349,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1365,9 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1317,8 +1381,9 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1399,9 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
@@ -1349,13 +1415,14 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1364,39 +1431,56 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
+      <c r="N41" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="25" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C21:M21"/>
     <mergeCell ref="C42:M42"/>
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="I27:I28"/>
@@ -1409,18 +1493,6 @@
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/development plan.xlsx
+++ b/docs/development plan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Search</t>
   </si>
@@ -123,12 +118,21 @@
   <si>
     <t>Miroslav Rudišin</t>
   </si>
+  <si>
+    <t>overdue</t>
+  </si>
+  <si>
+    <t>Jan Kohout, David Löffler, Miroslav Rudišin</t>
+  </si>
+  <si>
+    <t>David Löffler, Miroslav Rudišin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +173,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +219,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -464,11 +488,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,14 +546,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -520,18 +570,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -587,9 +645,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +682,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,14 +893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
@@ -855,37 +913,37 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="27">
         <v>5</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>6</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="27">
         <v>7</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="27">
         <v>8</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="27">
         <v>9</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="27">
         <v>10</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="27">
         <v>11</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="27">
         <v>12</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="27">
         <v>13</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="22">
         <v>14</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -893,17 +951,17 @@
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -919,7 +977,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -939,7 +997,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="30"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -955,7 +1013,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="31"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
@@ -971,7 +1029,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -989,7 +1047,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="31"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -1005,7 +1063,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="31"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -1023,7 +1081,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="31"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -1039,7 +1097,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="31"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -1055,7 +1113,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="31"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
@@ -1071,7 +1129,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="31"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -1089,7 +1147,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="31"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
@@ -1105,7 +1163,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="31"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
@@ -1121,39 +1179,39 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1165,37 +1223,37 @@
       <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="27">
         <v>5</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="27">
         <v>6</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="27">
         <v>7</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="27">
         <v>8</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="27">
         <v>9</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="27">
         <v>10</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="27">
         <v>11</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="27">
         <v>12</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="27">
         <v>13</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="22">
         <v>14</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1203,24 +1261,24 @@
       <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1229,7 +1287,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1249,40 +1307,42 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="20"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="31"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="31" t="s">
-        <v>23</v>
+      <c r="N32" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
@@ -1299,7 +1359,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
@@ -1315,7 +1375,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="31"/>
+      <c r="N34" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
@@ -1324,16 +1386,16 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="31"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
@@ -1342,30 +1404,30 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="31"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="31"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
@@ -1373,15 +1435,15 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
@@ -1399,7 +1461,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1408,14 +1470,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="14"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
@@ -1431,42 +1493,55 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="31" t="s">
+      <c r="N41" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1481,18 +1556,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/development plan.xlsx
+++ b/docs/development plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Search</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>David Löffler, Miroslav Rudišin</t>
+  </si>
+  <si>
+    <t>Yevgeniya Chekh</t>
+  </si>
+  <si>
+    <t>Miroslav Rudišin, Kryštof Sýkora</t>
   </si>
 </sst>
 </file>
@@ -549,6 +555,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,11 +590,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -893,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,37 +919,37 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="29">
         <v>5</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="29">
         <v>6</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="29">
         <v>7</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="29">
         <v>8</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="29">
         <v>9</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="29">
         <v>10</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="29">
         <v>11</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="29">
         <v>12</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="29">
         <v>13</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="24">
         <v>14</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -951,17 +957,17 @@
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1184,34 +1190,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1223,37 +1229,37 @@
       <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="29">
         <v>5</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="29">
         <v>6</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="29">
         <v>7</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="29">
         <v>8</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="29">
         <v>9</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="29">
         <v>10</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="29">
         <v>11</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="29">
         <v>12</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="29">
         <v>13</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="24">
         <v>14</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1261,24 +1267,24 @@
       <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1323,18 +1329,20 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1427,7 +1435,9 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
@@ -1498,34 +1508,34 @@
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="27">
